--- a/员工交易监测_20200507/20200518/AML/WebContent/WEB-INF/classes/AStaffAcctTradRRB.xlsx
+++ b/员工交易监测_20200507/20200518/AML/WebContent/WEB-INF/classes/AStaffAcctTradRRB.xlsx
@@ -150,18 +150,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分行号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>规则代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分行号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>员工编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,6 +222,14 @@
   </si>
   <si>
     <t>交易金额转人民币（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,7 +658,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="10" customWidth="1"/>
     <col min="3" max="3" width="14.75" style="8" customWidth="1"/>
     <col min="4" max="4" width="17.375" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
@@ -695,10 +695,10 @@
         <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>3</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="M1" s="11" t="s">
         <v>7</v>
@@ -752,28 +752,28 @@
         <v>14</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>35</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -808,7 +808,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
@@ -857,46 +857,46 @@
         <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>19</v>
@@ -914,7 +914,7 @@
         <v>23</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>24</v>
@@ -929,7 +929,7 @@
         <v>27</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>28</v>

--- a/员工交易监测_20200507/20200518/AML/WebContent/WEB-INF/classes/AStaffAcctTradRRB.xlsx
+++ b/员工交易监测_20200507/20200518/AML/WebContent/WEB-INF/classes/AStaffAcctTradRRB.xlsx
@@ -115,9 +115,6 @@
     <t>币种</t>
   </si>
   <si>
-    <t>交易金额</t>
-  </si>
-  <si>
     <t>对方金融机构网点名称</t>
   </si>
   <si>
@@ -221,15 +218,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>机构号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>交易金额转人民币（元）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机构号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构号</t>
+    <t>交易金额（元）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,9 +238,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -266,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,12 +276,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -340,13 +334,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -658,7 +650,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="27.25" style="10" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="8" customWidth="1"/>
     <col min="3" max="3" width="14.75" style="8" customWidth="1"/>
     <col min="4" max="4" width="17.375" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
@@ -666,13 +658,12 @@
     <col min="7" max="7" width="28.625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.625" style="8" customWidth="1"/>
     <col min="9" max="9" width="44.625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="8" customWidth="1"/>
     <col min="11" max="12" width="16.625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="15.75" style="10" customWidth="1"/>
-    <col min="14" max="14" width="15.75" style="8" customWidth="1"/>
+    <col min="13" max="14" width="15.75" style="8" customWidth="1"/>
     <col min="15" max="15" width="33.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.625" style="10" customWidth="1"/>
-    <col min="17" max="17" width="16.5" style="10" customWidth="1"/>
+    <col min="16" max="16" width="18.625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="16.5" style="8" customWidth="1"/>
     <col min="18" max="19" width="17" style="8" customWidth="1"/>
     <col min="20" max="20" width="18" style="8" customWidth="1"/>
     <col min="21" max="21" width="16.375" style="8" bestFit="1" customWidth="1"/>
@@ -683,7 +674,7 @@
     <col min="26" max="26" width="40.125" style="8" customWidth="1"/>
     <col min="27" max="27" width="31" style="8" customWidth="1"/>
     <col min="28" max="28" width="24.625" style="8" customWidth="1"/>
-    <col min="29" max="29" width="15.375" style="10" customWidth="1"/>
+    <col min="29" max="29" width="15.375" style="8" customWidth="1"/>
     <col min="30" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -695,10 +686,10 @@
         <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -715,16 +706,16 @@
       <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -733,10 +724,10 @@
       <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="R1" s="5" t="s">
@@ -752,32 +743,31 @@
         <v>14</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Z1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="A1:A1048576 K1:L1048576 N1:O1048576 R1:AB1048576 C1:I1048576" name="区域1"/>
   </protectedRanges>
@@ -826,17 +816,17 @@
     <col min="17" max="17" width="16.25" customWidth="1"/>
     <col min="18" max="18" width="15.375" customWidth="1"/>
     <col min="19" max="19" width="12.125" customWidth="1"/>
-    <col min="20" max="20" width="15.125" customWidth="1"/>
+    <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
     <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.375" customWidth="1"/>
     <col min="24" max="24" width="18.125" customWidth="1"/>
     <col min="25" max="25" width="25.25" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15.25" customWidth="1"/>
-    <col min="27" max="27" width="12.25" customWidth="1"/>
-    <col min="28" max="28" width="9" customWidth="1"/>
-    <col min="29" max="29" width="12.875" customWidth="1"/>
-    <col min="30" max="30" width="22.5" customWidth="1"/>
+    <col min="27" max="27" width="17.75" style="10" customWidth="1"/>
+    <col min="28" max="28" width="24.75" style="10" customWidth="1"/>
+    <col min="29" max="29" width="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="23" customWidth="1"/>
     <col min="32" max="32" width="27.875" customWidth="1"/>
     <col min="33" max="33" width="14.5" customWidth="1"/>
@@ -854,49 +844,49 @@
         <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>19</v>
@@ -914,7 +904,7 @@
         <v>23</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>24</v>
@@ -925,32 +915,32 @@
       <c r="Z1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
